--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Performance</t>
-  </si>
-  <si>
-    <t>P1</t>
   </si>
   <si>
     <t>Placez la déclaration doctype en tête de votre fichier HTML, juste après l'ouverture de la balise &lt;html&gt;.
@@ -88,12 +85,47 @@
       <t>(2récurence sur la page Index.html et Page2.html)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">A FAIRE </t>
+  </si>
+  <si>
+    <t>La balise meta "keywords" était utilisée autrefois pour indiquer aux moteurs de recherche les mots-clés associés à une page web. Cependant, cette balise est devenue obsolète et n'est plus prise en compte par les moteurs de recherche, notamment Google, qui ne l'utilise plus depuis 2009. Il est donc inutile de l'utiliser dans votre code HTML.</t>
+  </si>
+  <si>
+    <t>pour améliorer la référence du site on va plutôt utiliser d'autres éléments tels que le contenu de qualité, la structure du site et les balises meta "description" et "title</t>
+  </si>
+  <si>
+    <t>https://www.balisemeta.com/raison-du-declin-balise-keywords.html</t>
+  </si>
+  <si>
+    <r>
+      <t>La balise meta "keywords" est obsolète et ne devrait pas être utilisée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2récurence sur la page Index.html et Page2.html) </t>
+    </r>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer par ?&lt;meta name="robots" content="index, follow"&gt;  </t>
+  </si>
+  <si>
+    <t>compléter les balise (qui sont mal utlisé dans le site) en utilisant mieux les balises "description" et "title".Suppression de la ligne sur les 2 pages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,8 +192,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -235,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,7 +505,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -464,7 +514,7 @@
     <col min="2" max="2" width="9.81640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="32.1796875" style="6" customWidth="1"/>
     <col min="4" max="4" width="58.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.453125" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" style="6" customWidth="1"/>
     <col min="8" max="27" width="10.54296875" style="6" customWidth="1"/>
@@ -493,7 +543,9 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -515,31 +567,53 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="7"/>
@@ -1565,8 +1639,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Catégorie</t>
   </si>
@@ -86,9 +86,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">A FAIRE </t>
-  </si>
-  <si>
     <t>La balise meta "keywords" était utilisée autrefois pour indiquer aux moteurs de recherche les mots-clés associés à une page web. Cependant, cette balise est devenue obsolète et n'est plus prise en compte par les moteurs de recherche, notamment Google, qui ne l'utilise plus depuis 2009. Il est donc inutile de l'utiliser dans votre code HTML.</t>
   </si>
   <si>
@@ -120,12 +117,129 @@
   <si>
     <t>compléter les balise (qui sont mal utlisé dans le site) en utilisant mieux les balises "description" et "title".Suppression de la ligne sur les 2 pages</t>
   </si>
+  <si>
+    <t xml:space="preserve">SEO </t>
+  </si>
+  <si>
+    <t>Il y a une balise &lt;li&gt; inutile à la ligne 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise &lt;li&gt; inutile à la ligne 50 est inutile car elle ne contient aucun contenu ni aucune autre balise enfant. Cela peut causer des erreurs de validation et de rendu de la page. </t>
+  </si>
+  <si>
+    <t>Il est donc recommandé de supprimer cette balise pour éviter tout problème de rendu ou de validation.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/li</t>
+  </si>
+  <si>
+    <t>Il est recommandé de mettre un code valide pour l'attribut "lang" dans la balise &lt;html&gt; pour spécifier la langue utilisée pour la page web. Cela permet aux navigateurs et aux utilisateurs de comprendre dans quelle langue est écrite la page et de l'afficher correctement. Il est important de faire cela car cela contribue à une meilleure compatibilité et une meilleure accessibilité pour les utilisateurs qui visitent votre site.</t>
+  </si>
+  <si>
+    <t>mettre la langue principale de la page "fr". Cela contribue à une meilleure compatibilité et une meilleure accessibilité pour les utilisateurs qui visitent votre site.&lt;html lang="fr"&gt;</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/International/questions/qa-html-language-declarations</t>
+  </si>
+  <si>
+    <t>pour le titre la balise est écrit "&lt;title&gt;.&lt;/title&gt;" Il est important de mettre un titre valide et pertinent pour la page dans la balise &lt;title&gt; car cela permet aux utilisateurs et aux moteurs de recherche de comprendre le sujet de votre page, cela améliore l'expérience utilisateur et cela aide à être bien référencé dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t>La bonne pratique pour la balise &lt;title&gt; est de mettre un titre valide, pertinent et descriptif pour la page. Il doit être court, précis et refléter le contenu de la page. Il est important de ne pas utiliser de mots clés inutiles ou de répéter plusieurs fois le même mot-clé. Il est également important de s'assurer que chaque page de votre site a un titre unique, et qu'il est différent des autres pages pour éviter la duplication de contenu.</t>
+  </si>
+  <si>
+    <t>https://www.search-factory.fr/balise-title/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pas de titre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2récurence sur la page Index.html et Page2.html) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eurrer d'écriture pour la balise                   &lt;html lang="Default"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2récurence sur la page Index.html et Page2.html) </t>
+    </r>
+  </si>
+  <si>
+    <t>il faut écrit plutôt comme ça &lt;img src="img/agence-la-panthere-monochrome.svg" alt="paris web design logo agence web meilleure agence" height="40" /&gt;</t>
+  </si>
+  <si>
+    <t>Utiliser un slash à la fin d'une balise vide peut causer des erreurs de rendu ou des problèmes de compatibilité avec certains navigateurs ou outils de développement.
+Cela peut également causer des problèmes d'accessibilité pour les utilisateurs d'assistive technologie qui peuvent ne pas être capables de comprendre correctement le contenu de la page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/ ajouté en trop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(13récurence sur la page Index.html et Page2.html) </t>
+    </r>
+  </si>
+  <si>
+    <t>il y a un attribut 'success-msg' et 'fail-msg' qui ne sont pas autorisés pour l'élément 'form' dans le code HTML. Ces attributs ne font pas partie des attributs standard de la balise 'form' définis par la norme HTML.</t>
+  </si>
+  <si>
+    <t>Il est préférable d'utiliser la balise "form" avec l'attribut "novalidate" plutôt que d'utiliser des attributs personnalisés, car cela est conforme aux normes de développement web et est pris en charge par tous les navigateurs.                                                                                       Ça donnerai : &lt;form id="form_1" novalidate&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eurre avec la balise from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/form</t>
+  </si>
+  <si>
+    <t>https://www.alsacreations.com/article/lire/1407-balises-vides-auto-fermantes-en-html.html</t>
+  </si>
+  <si>
+    <r>
+      <t>média obsolète min-device-width (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2récurence dans le style.css)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,12 +277,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -196,6 +304,19 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -243,17 +364,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,23 +386,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,67 +631,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="58.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="6" customWidth="1"/>
-    <col min="8" max="27" width="10.54296875" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="11.26953125" style="6"/>
+    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="65.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="57.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="5" customWidth="1"/>
+    <col min="8" max="27" width="10.54296875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="11.26953125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -573,83 +700,182 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:27" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="7"/>
+    <row r="6" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="7"/>
+    <row r="7" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="7"/>
+    <row r="8" spans="1:27" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="7"/>
+    <row r="9" spans="1:27" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1640,8 +1866,13 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Catégorie</t>
   </si>
@@ -233,6 +233,79 @@
       </rPr>
       <t>2récurence dans le style.css)</t>
     </r>
+  </si>
+  <si>
+    <t>Le problème est qu'il y a une utilisation de caractéristiques média obsolètes dans le code. Les caractéristiques min-device-width et max-device-width ne sont plus considérées comme valides dans les spécifications actuelles des Media Queries</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/@media/device-width</t>
+  </si>
+  <si>
+    <t>remplacer par des caractéristiques média plus récentes pour assurer la compatibilité du site avec les navigateurs et les normes actuelles. Exemple: @media only screen and (min-width: 768px) and (max-width: 1023px) ou @media only screen and (min-width: 1024px)</t>
+  </si>
+  <si>
+    <r>
+      <t>média obsolète max-device-width (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2récurence dans le style.css)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> .bloc {
+        padding-left: constant(safe-area-inset-left);
+        padding-right: constant(safe-area-inset-right);
+    }</t>
+  </si>
+  <si>
+    <t>Manque sitemap</t>
+  </si>
+  <si>
+    <t>Utiliser un sitemap est important car il aide les moteurs de recherche à explorer et indexer toutes les pages de votre site. Cela permet aux moteurs de recherche de comprendre la structure de votre site et de mieux comprendre les liens entre les différentes pages. Cela peut améliorer le référencement de votre site et augmenter sa visibilité dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crée un sitemap pour le site </t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/crawling-indexing/sitemaps/overview?hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom page 2 </t>
+  </si>
+  <si>
+    <t>Il est recommandé d'utiliser la balise meta name="robots" content="index, follow" pour permettre aux moteurs de recherche d'indexer et de suivre les liens de vos pages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouté &lt;meta name="robots" content="index, follow"&gt; au code </t>
+  </si>
+  <si>
+    <t>Il est important de donner un nom significatif à la page pour aider les moteurs de recherche à comprendre le contenu de la page et pour que les utilisateurs puissent comprendre de quoi traite la page en la voyant dans les résultats de recherche. Cela peut également aider à augmenter le classement de la page dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout de meta name robots </t>
+  </si>
+  <si>
+    <t>Balise sémantique</t>
+  </si>
+  <si>
+    <t>Utiliser des balises sémantiques dans le code HTML d'un site permet aux moteurs de recherche de mieux comprendre la structure et le contenu de la page. Cela peut améliorer les performances de référencement et faciliter l'accessibilité pour les utilisateurs et les outils d'aide pour les utilisateurs.</t>
+  </si>
+  <si>
+    <t>utiliser les balises sémantique ( A FAIRE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Utilisez des balises d'en-tête (H1, H2, etc.) pour structurer votre contenu et aider les moteurs de recherche à comprendre la hiérarchie de votre contenu.
+    Utilisez un sitemap pour aider les moteurs de recherche à explorer le site.
+    Utilisez des balises canoniques pour éviter les doublons de contenu.
+    Utilisez la balise "meta name="robots" content="index, follow"" pour indiquer aux moteurs de recherche de l'indexer et de suivre les liens.
+    Utilisez des noms de fichiers descriptifs pour vos pages.
+    Utilisez des balises sémantiques pour améliorer l'accessibilité et la compréhension de votre contenu par les moteurs de recherche.</t>
   </si>
 </sst>
 </file>
@@ -320,7 +393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -366,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -412,6 +491,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,13 +722,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="6.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="32.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="65.81640625" style="5" customWidth="1"/>
@@ -857,43 +948,140 @@
       <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="6"/>
+      <c r="G9" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F10" s="6"/>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="6"/>
+      <c r="G13" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1871,8 +2059,11 @@
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId8"/>
+  <pageSetup orientation="landscape" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Catégorie</t>
   </si>
@@ -300,12 +300,61 @@
     <t>utiliser les balises sémantique ( A FAIRE)</t>
   </si>
   <si>
-    <t xml:space="preserve">    Utilisez des balises d'en-tête (H1, H2, etc.) pour structurer votre contenu et aider les moteurs de recherche à comprendre la hiérarchie de votre contenu.
-    Utilisez un sitemap pour aider les moteurs de recherche à explorer le site.
-    Utilisez des balises canoniques pour éviter les doublons de contenu.
-    Utilisez la balise "meta name="robots" content="index, follow"" pour indiquer aux moteurs de recherche de l'indexer et de suivre les liens.
-    Utilisez des noms de fichiers descriptifs pour vos pages.
-    Utilisez des balises sémantiques pour améliorer l'accessibilité et la compréhension de votre contenu par les moteurs de recherche.</t>
+    <t xml:space="preserve"> Google Maps n'est pas utilisé sur le site, il n'est pas nécessaire d'inclure le fichier gmaps.js. Cela peut ralentir le temps de chargement du site et augmenter la taille de votre code HTML pour rien. Il est donc préférable de supprimer cette ligne de code de le fichier HTML.</t>
+  </si>
+  <si>
+    <t>supprimer &lt;script src="./js/gmaps.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">script unitile </t>
+  </si>
+  <si>
+    <t>&lt;meta name="description" content=""&gt; vide</t>
+  </si>
+  <si>
+    <t>Defer</t>
+  </si>
+  <si>
+    <t>Lorsque on utilise "defer" dans un script, cela signifie que le script ne sera pas chargé ou exécuté avant que le reste de la page HTML n'ait été chargé. Cela peut aider à améliorer les performances de votre site web car les scripts ne bloquent pas le chargement de la page.</t>
+  </si>
+  <si>
+    <t>utiliser defer dans les script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changement de place &lt;link rel="stylesheet" type="text/css" href="style.css"&gt; </t>
+  </si>
+  <si>
+    <t>Il est recommandé de placer le fichier CSS en dernier dans la liste de chargement pour éviter que des styles ne soient remplacés ou ignorés par des feuilles de style chargées ultérieurement. Cela permet également de s'assurer que les styles personnalisés sont appliqués après ceux définis par les feuilles de style de bibliothèques ou de frameworks utilisés.</t>
+  </si>
+  <si>
+    <t>placer le fichier CSS en dernier dans la liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilise des Images pour faire du texte </t>
+  </si>
+  <si>
+    <t>Il est préférable d'utiliser des balises de texte pour les titres et les paragraphes plutôt que d'utiliser des images pour afficher du texte. Les images ne sont pas accessibles aux utilisateurs d'écran et ne peuvent pas être indexées par les moteurs de recherche, ce qui peut impacter le référencement. Il est préférable d'utiliser des styles CSS pour personnaliser l'apparence du texte plutôt que d'utiliser des images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer les images par du texte </t>
+  </si>
+  <si>
+    <t>Il est important d'utiliser une taille de police adéquate pour rendre le contenu du votre site facile à lire et à comprendre pour tous les utilisateurs. Utiliser des tailles de police en rem permet de garantir que la taille de police est proportionnelle à la taille de l'écran de l'utilisateur, garantissant ainsi une expérience utilisateur optimale sur tous les appareils. Cela permet également d'améliorer l'accessibilité pour les personnes ayant des difficultés de vision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taille du texte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre en REM </t>
+  </si>
+  <si>
+    <t>Constant existe pas normal c'est ENV,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvais hierarchie des titres </t>
   </si>
 </sst>
 </file>
@@ -420,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -492,16 +541,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -987,101 +1033,173 @@
       <c r="D11" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:27" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:27" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:27" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:27" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2167,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -2061,7 +2178,7 @@
     <hyperlink ref="G7" r:id="rId7"/>
     <hyperlink ref="G9" r:id="rId8"/>
     <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId11"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>Catégorie</t>
   </si>
@@ -324,15 +324,6 @@
     <t xml:space="preserve">CDN </t>
   </si>
   <si>
-    <t xml:space="preserve">changement de place &lt;link rel="stylesheet" type="text/css" href="style.css"&gt; </t>
-  </si>
-  <si>
-    <t>Il est recommandé de placer le fichier CSS en dernier dans la liste de chargement pour éviter que des styles ne soient remplacés ou ignorés par des feuilles de style chargées ultérieurement. Cela permet également de s'assurer que les styles personnalisés sont appliqués après ceux définis par les feuilles de style de bibliothèques ou de frameworks utilisés.</t>
-  </si>
-  <si>
-    <t>placer le fichier CSS en dernier dans la liste</t>
-  </si>
-  <si>
     <t xml:space="preserve">utilise des Images pour faire du texte </t>
   </si>
   <si>
@@ -355,6 +346,30 @@
   </si>
   <si>
     <t xml:space="preserve">Mauvais hierarchie des titres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image trop lourd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;!-- &lt;script src="https://code.jquery.com/jquery-2.1.0.js" defer&gt;&lt;/script&gt;
+ &lt;script src="https://maxcdn.bootstrapcdn.com/bootstrap/3.3.7/js/bootstrap.js" defer&gt;&lt;/script&gt;
+ &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/blocs.js/1.0.0/blocs.js" defer&gt;&lt;/script&gt;
+ &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/jquery.touchswipe/1.6.18/jquery.touchSwipe.js" defer&gt;&lt;/script&gt; --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratique de Backhat </t>
+  </si>
+  <si>
+    <t>Les pratiques black hat visent à manipuler les résultats de recherche en utilisant des techniques illégales. L'ajout de partenaires bidon est l'une de ces techniques qui peut causer des dommages à long terme au référencement d'un site. Il est préférable d'éviter ces pratiques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supréssion du code abusif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amélioration des Alt sur les Images </t>
+  </si>
+  <si>
+    <t>Les alt sont des attributs dans les balises img qui décrivent une image en cas où elle ne peut pas être chargée. Il est important d'utiliser des alt pertinents car ils aident les utilisateurs d'écran et les moteurs de recherche à comprendre le contenu de l'image. Cela peut aider à améliorer l'accessibilité et le référencement du site.</t>
   </si>
 </sst>
 </file>
@@ -442,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -494,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -549,6 +570,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA999"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -1102,6 +1132,7 @@
       <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1117,15 +1148,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1138,68 +1170,97 @@
       <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>22</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="14" t="s">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2227,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>Catégorie</t>
   </si>
@@ -351,32 +351,41 @@
     <t xml:space="preserve">Image trop lourd </t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;!-- &lt;script src="https://code.jquery.com/jquery-2.1.0.js" defer&gt;&lt;/script&gt;
- &lt;script src="https://maxcdn.bootstrapcdn.com/bootstrap/3.3.7/js/bootstrap.js" defer&gt;&lt;/script&gt;
- &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/blocs.js/1.0.0/blocs.js" defer&gt;&lt;/script&gt;
- &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/jquery.touchswipe/1.6.18/jquery.touchSwipe.js" defer&gt;&lt;/script&gt; --&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pratique de Backhat </t>
   </si>
   <si>
     <t>Les pratiques black hat visent à manipuler les résultats de recherche en utilisant des techniques illégales. L'ajout de partenaires bidon est l'une de ces techniques qui peut causer des dommages à long terme au référencement d'un site. Il est préférable d'éviter ces pratiques.</t>
   </si>
   <si>
-    <t xml:space="preserve">supréssion du code abusif </t>
-  </si>
-  <si>
     <t xml:space="preserve">Amélioration des Alt sur les Images </t>
   </si>
   <si>
     <t>Les alt sont des attributs dans les balises img qui décrivent une image en cas où elle ne peut pas être chargée. Il est important d'utiliser des alt pertinents car ils aident les utilisateurs d'écran et les moteurs de recherche à comprendre le contenu de l'image. Cela peut aider à améliorer l'accessibilité et le référencement du site.</t>
+  </si>
+  <si>
+    <t>supréssion du code abusif avec les annuaires et les moot en tout petit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le responsive est mal fait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c good intgrity </t>
+  </si>
+  <si>
+    <t>les couleurs du texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mimifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core web vals </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,8 +465,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +515,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -515,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -538,9 +565,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -579,6 +603,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,7 +847,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -816,7 +864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -837,7 +885,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="4"/>
@@ -867,21 +915,22 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="24" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:27" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -893,19 +942,19 @@
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -919,14 +968,14 @@
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -937,17 +986,17 @@
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -958,17 +1007,17 @@
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -979,17 +1028,17 @@
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1003,14 +1052,14 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1018,20 +1067,20 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1039,20 +1088,20 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1060,7 +1109,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1078,14 +1127,14 @@
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1096,10 +1145,10 @@
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="6"/>
@@ -1111,7 +1160,7 @@
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1126,13 +1175,13 @@
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1141,126 +1190,147 @@
       <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>22</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="D25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>Catégorie</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t xml:space="preserve">Core web vals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lien Accueil page 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mal cadré </t>
+  </si>
+  <si>
+    <t>trop de lien contact #</t>
   </si>
 </sst>
 </file>
@@ -846,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1328,8 +1337,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
   <si>
     <t>Catégorie</t>
   </si>
@@ -72,20 +72,6 @@
     <t>https://developer.mozilla.org/fr/docs/Glossary/Doctype</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">eurrer d'écriture pour la balise  &lt;!DOCTYPE html&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2récurence sur la page Index.html et Page2.html)</t>
-    </r>
-  </si>
-  <si>
     <t>La balise meta "keywords" était utilisée autrefois pour indiquer aux moteurs de recherche les mots-clés associés à une page web. Cependant, cette balise est devenue obsolète et n'est plus prise en compte par les moteurs de recherche, notamment Google, qui ne l'utilise plus depuis 2009. Il est donc inutile de l'utiliser dans votre code HTML.</t>
   </si>
   <si>
@@ -95,20 +81,6 @@
     <t>https://www.balisemeta.com/raison-du-declin-balise-keywords.html</t>
   </si>
   <si>
-    <r>
-      <t>La balise meta "keywords" est obsolète et ne devrait pas être utilisée</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(2récurence sur la page Index.html et Page2.html) </t>
-    </r>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
@@ -149,34 +121,6 @@
   </si>
   <si>
     <t>https://www.search-factory.fr/balise-title/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pas de titre </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(2récurence sur la page Index.html et Page2.html) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>eurrer d'écriture pour la balise                   &lt;html lang="Default"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(2récurence sur la page Index.html et Page2.html) </t>
-    </r>
   </si>
   <si>
     <t>il faut écrit plutôt comme ça &lt;img src="img/agence-la-panthere-monochrome.svg" alt="paris web design logo agence web meilleure agence" height="40" /&gt;</t>
@@ -186,20 +130,6 @@
 Cela peut également causer des problèmes d'accessibilité pour les utilisateurs d'assistive technologie qui peuvent ne pas être capables de comprendre correctement le contenu de la page.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">/ ajouté en trop </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(13récurence sur la page Index.html et Page2.html) </t>
-    </r>
-  </si>
-  <si>
     <t>il y a un attribut 'success-msg' et 'fail-msg' qui ne sont pas autorisés pour l'élément 'form' dans le code HTML. Ces attributs ne font pas partie des attributs standard de la balise 'form' définis par la norme HTML.</t>
   </si>
   <si>
@@ -221,20 +151,6 @@
     <t>https://www.alsacreations.com/article/lire/1407-balises-vides-auto-fermantes-en-html.html</t>
   </si>
   <si>
-    <r>
-      <t>média obsolète min-device-width (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2récurence dans le style.css)</t>
-    </r>
-  </si>
-  <si>
     <t>Le problème est qu'il y a une utilisation de caractéristiques média obsolètes dans le code. Les caractéristiques min-device-width et max-device-width ne sont plus considérées comme valides dans les spécifications actuelles des Media Queries</t>
   </si>
   <si>
@@ -242,20 +158,6 @@
   </si>
   <si>
     <t>remplacer par des caractéristiques média plus récentes pour assurer la compatibilité du site avec les navigateurs et les normes actuelles. Exemple: @media only screen and (min-width: 768px) and (max-width: 1023px) ou @media only screen and (min-width: 1024px)</t>
-  </si>
-  <si>
-    <r>
-      <t>média obsolète max-device-width (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2récurence dans le style.css)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> .bloc {
@@ -297,9 +199,6 @@
     <t>Utiliser des balises sémantiques dans le code HTML d'un site permet aux moteurs de recherche de mieux comprendre la structure et le contenu de la page. Cela peut améliorer les performances de référencement et faciliter l'accessibilité pour les utilisateurs et les outils d'aide pour les utilisateurs.</t>
   </si>
   <si>
-    <t>utiliser les balises sémantique ( A FAIRE)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Google Maps n'est pas utilisé sur le site, il n'est pas nécessaire d'inclure le fichier gmaps.js. Cela peut ralentir le temps de chargement du site et augmenter la taille de votre code HTML pour rien. Il est donc préférable de supprimer cette ligne de code de le fichier HTML.</t>
   </si>
   <si>
@@ -339,9 +238,6 @@
     <t xml:space="preserve">taille du texte </t>
   </si>
   <si>
-    <t xml:space="preserve">mettre en REM </t>
-  </si>
-  <si>
     <t>Constant existe pas normal c'est ENV,</t>
   </si>
   <si>
@@ -363,15 +259,6 @@
     <t>Les alt sont des attributs dans les balises img qui décrivent une image en cas où elle ne peut pas être chargée. Il est important d'utiliser des alt pertinents car ils aident les utilisateurs d'écran et les moteurs de recherche à comprendre le contenu de l'image. Cela peut aider à améliorer l'accessibilité et le référencement du site.</t>
   </si>
   <si>
-    <t>supréssion du code abusif avec les annuaires et les moot en tout petit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le responsive est mal fait </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c good intgrity </t>
-  </si>
-  <si>
     <t>les couleurs du texte</t>
   </si>
   <si>
@@ -384,17 +271,123 @@
     <t xml:space="preserve">Lien Accueil page 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mal cadré </t>
-  </si>
-  <si>
     <t>trop de lien contact #</t>
+  </si>
+  <si>
+    <t>ajout d'aria label sur les lien réseau social</t>
+  </si>
+  <si>
+    <t>Ajout de google annalyticst</t>
+  </si>
+  <si>
+    <t>mimifier page 2</t>
+  </si>
+  <si>
+    <t>Utiliser un CDN (Content Delivery Network) pour un site web peut améliorer les performances en réduisant le temps de chargement des pages et en réduisant la bande passante nécessaire pour charger les ressources. Les CDN permettent également de répartir le trafic sur plusieurs serveurs, ce qui peut réduire les risques de surcharge et améliorer la disponibilité du site. En utilisant des CDN, les utilisateurs du site peuvent également accéder à des ressources plus rapidement en se connectant à un serveur proche géographiquement.</t>
+  </si>
+  <si>
+    <t>utiliser un cdn avec l'intergrity c'est important pour la sécurité voila une exemple &lt;script defer  src="https://cdnjs.cloudflare.com/ajax/libs/jquery/2.1.0/jquery.min.js" integrity="sha384-85/BFduEdDxQ86xztyNu4BBkVZmlvu+iB7zhBu0VoYdq+ODs3PKpU6iVE3ZqPMut" crossorigin="anonymous"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Mettre en REM si possible est ne pas aller en dessous de 16px</t>
+  </si>
+  <si>
+    <t>La hiérarchie des titres est importante pour la structure du site web et pour l'optimisation pour les moteurs de recherche. Elle permet aux utilisateurs et aux moteurs de comprendre rapidement le contenu de votre site et de naviguer efficacement.</t>
+  </si>
+  <si>
+    <t>bien utiliser H1&gt;H2&gt;H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eurrer d'écriture pour la balise  &lt;!DOCTYPE html&gt; </t>
+  </si>
+  <si>
+    <t>La balise meta "keywords" est obsolète et ne devrait pas être utilisée</t>
+  </si>
+  <si>
+    <t>eurrer d'écriture pour la balise                   &lt;html lang="Default"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de titre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ ajouté en trop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">média obsolète max-device-width </t>
+  </si>
+  <si>
+    <t>utiliser les balises sémantique Header/main/footer</t>
+  </si>
+  <si>
+    <t>Le meta description est un élément important dans l'optimisation de référencement du site. Il est utilisé par les moteurs de recherche pour comprendre le contenu de votre page et l'afficher dans les résultats de recherche. Il est donc important de le remplir avec une description précise et concise de ce que contient la page. Cela aidera les utilisateurs à savoir s'ils souhaitent cliquer sur le lien et augmentera également les chances que votre page soit bien classée dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t>remplir la balise : &lt;meta name="description"
+  content="La Panthère, agence web basé à lyon, une entreprise de webdesign , spécialisé dans l'accessibilité"&gt;</t>
+  </si>
+  <si>
+    <t>Suppression du code abusif avec les annuaires et des mots en tout petit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplir les alt pour décrire l'image </t>
+  </si>
+  <si>
+    <t>Le responsive design est important car il permet aux utilisateurs d'afficher correctement un site web sur différents types d'appareils (ordinateurs, tablettes, smartphones, etc.). Cela garantit une expérience utilisateur optimale, car le contenu s'adapte automatiquement à la taille de l'écran. En ce qui concerne le SEO, les moteurs de recherche donnent une préférence aux sites qui sont adaptatifs aux différents appareils, car ils sont plus accessibles et plus faciles à naviguer pour les utilisateurs. Cela peut donc améliorer le classement du site dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t>le responsive légére amélioration du responsiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendre le site un peut plus responsiv </t>
+  </si>
+  <si>
+    <t>Les couleurs de texte sont importantes pour l'accessibilité car elles permettent aux utilisateurs qui ont des difficultés visuelles de lire facilement le contenu. C'est également important pour le SEO car les moteurs de recherche prennent en compte l'accessibilité pour classer les sites dans les résultats de recherche. Il est donc important de choisir des couleurs de texte contrastées pour améliorer la lisibilité et pour aider les utilisateurs à naviguer sur le site.</t>
+  </si>
+  <si>
+    <t>Les couleurs de fond et de texte doivent être choisies de manière à garantir une bonne lisibilité et une accessibilité pour les utilisateurs. Il est également important de respecter les normes d'accessibilité pour le SEO. Les bonnes pratiques incluent l'utilisation de contrastes élevés entre le texte et le fond</t>
+  </si>
+  <si>
+    <t>Il est important de minimiser son code pour améliorer les performances de son site. Minimiser le code signifie enlever les espaces, les retours à la ligne et les commentaires inutiles pour réduire la taille du fichier. Cela permet de charger plus rapidement les pages du site, ce qui améliore l'expérience utilisateur et peut également améliorer le référencement. Il existe des outils en ligne gratuits pour minimiser le code HTML, CSS et JavaScript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utiliser un site comme https://javascript-minifier.com/ </t>
+  </si>
+  <si>
+    <t>Il est important de cadrer les éléments de votre site pour une meilleure présentation et une navigation plus facile pour les utilisateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bien cadrer les éléments </t>
+  </si>
+  <si>
+    <t>Les aria-label sont importants pour l'accessibilité car ils permettent aux utilisateurs d'écran de comprendre le contexte et la fonction des éléments du site. Ils peuvent également être utilisés par les moteurs de recherche pour comprendre le contenu de votre site, ce qui peut améliorer votre référencement.</t>
+  </si>
+  <si>
+    <t>utiliser l'attribut aria-label=""</t>
+  </si>
+  <si>
+    <t>divers probléme sur la navbar de la page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utiliser la même navbar que index HTML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoir une nav bar différent de la page 1 (index.hmtl) peut troubler l'expérience utilisateur de plus la navbar comporte d'autre souci comme un li vide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divers probléme sur le footer de la page 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoir un footer différent de la page 1 (index.hmtl) peut troubler l'expérience utilisateur de plus le footer comporte d'autre souci comme des lien qui ne s'affiche pas et des pratique de blackhat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">média obsolète min-device-width </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,12 +438,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -470,12 +457,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -487,7 +468,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,13 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -577,16 +564,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,35 +594,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -855,15 +854,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.81640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="6.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34" style="5" customWidth="1"/>
     <col min="4" max="4" width="65.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="57.6328125" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.453125" style="5" customWidth="1"/>
@@ -895,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -924,47 +923,47 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:27" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,17 +974,17 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,20 +992,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,20 +1013,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,20 +1034,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,20 +1055,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,18 +1078,18 @@
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>43</v>
+      <c r="C9" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,50 +1100,52 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:27" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="24" t="s">
-        <v>52</v>
+      <c r="G12" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,13 +1153,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1167,13 +1168,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -1182,13 +1183,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -1197,23 +1198,29 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="140.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>64</v>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="F17" s="18"/>
     </row>
@@ -1222,40 +1229,43 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>68</v>
+      <c r="C19" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F20" s="18"/>
     </row>
@@ -1264,21 +1274,28 @@
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>22</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>76</v>
+      <c r="C22" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F22" s="18"/>
     </row>
@@ -1287,86 +1304,157 @@
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>Catégorie</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Mettre en REM si possible est ne pas aller en dessous de 16px</t>
   </si>
   <si>
-    <t>La hiérarchie des titres est importante pour la structure du site web et pour l'optimisation pour les moteurs de recherche. Elle permet aux utilisateurs et aux moteurs de comprendre rapidement le contenu de votre site et de naviguer efficacement.</t>
-  </si>
-  <si>
     <t>bien utiliser H1&gt;H2&gt;H3</t>
   </si>
   <si>
@@ -381,6 +378,12 @@
   </si>
   <si>
     <t xml:space="preserve">média obsolète min-device-width </t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>La hiérarchie des titres est importante pour la structure du site web et pour l'optimisation pour les moteurs de recherche. Elle permet aux utilisateurs et aux moteurs de comprendre rapidement le contenu du site et de naviguer efficacement.</t>
   </si>
 </sst>
 </file>
@@ -854,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -924,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>9</v>
@@ -948,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>12</v>
@@ -995,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -1016,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>26</v>
@@ -1037,7 +1040,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>30</v>
@@ -1079,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>38</v>
@@ -1100,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>38</v>
@@ -1189,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -1217,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="F17" s="18"/>
     </row>
@@ -1292,10 +1295,10 @@
         <v>67</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="F22" s="18"/>
     </row>
@@ -1319,7 +1322,7 @@
         <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="18"/>
     </row>
@@ -1331,19 +1334,19 @@
         <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F26" s="18"/>
     </row>
@@ -1352,10 +1355,10 @@
         <v>73</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="32"/>
@@ -1365,10 +1368,10 @@
         <v>74</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,10 +1388,10 @@
         <v>76</v>
       </c>
       <c r="D30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,10 +1407,10 @@
         <v>78</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F32" s="18"/>
     </row>
@@ -1418,13 +1421,13 @@
     </row>
     <row r="34" spans="3:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F34" s="18"/>
     </row>
@@ -1433,10 +1436,10 @@
     </row>
     <row r="36" spans="3:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1447,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>Catégorie</t>
   </si>
@@ -405,6 +405,9 @@
       &lt;/label&gt;
       &lt;input id="email" class="form-control" type="email" required=""&gt;
      &lt;div class="help-block"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boostrap et jequery sécurité </t>
   </si>
 </sst>
 </file>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1498,7 +1501,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
   <si>
     <t>Catégorie</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remplacer par ?&lt;meta name="robots" content="index, follow"&gt;  </t>
   </si>
   <si>
     <t>compléter les balise (qui sont mal utlisé dans le site) en utilisant mieux les balises "description" et "title".Suppression de la ligne sur les 2 pages</t>
@@ -408,6 +405,25 @@
   </si>
   <si>
     <t xml:space="preserve">Boostrap et jequery sécurité </t>
+  </si>
+  <si>
+    <t>Le souci était un lien vers une autre emplacement dans la page qui n'avait pas de cible correspondante. Cela rend le lien inopérant et peut causer de la confusion pour les utilisateurs.</t>
+  </si>
+  <si>
+    <t>Il est recommandé de toujours inclure un élément de destination correspondant pour les liens qui renvoient à un emplacement dans la même page. Cela aide à assurer une navigation fluide pour les utilisateurs et peut également améliorer l'accessibilité pour les utilisateurs avec des navigateurs d'assistance.</t>
+  </si>
+  <si>
+    <t>L'utilisation de versions plus récentes de Bootstrap et JQuery peut améliorer la sécurité de votre site web. Des mises à jour de sécurité sont souvent publiées pour corriger les faiblesses de sécurité dans les anciennes versions. Il est donc important d'utiliser des versions à jour pour minimiser les risques pour votre site.</t>
+  </si>
+  <si>
+    <t>https://www.prod.citeo.com/fr/des-bibliotheques-javascript-a-jour-augmentez-la-securite-de-votre-site-web/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La bonne pratique est d'utiliser les versions les plus récentes de frameworks tels que Bootstrap et Jquery pour assurer la sécurité du code et éviter les vulnérabilités connues des versions plus anciennes. Il est également important de maintenir à jour votre code pour bénéficier des nouvelles fonctionnalités et des performances améliorées.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -495,7 +511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,13 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -585,9 +613,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -639,29 +664,65 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -881,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -891,7 +952,7 @@
     <col min="2" max="2" width="6.53515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="34" style="5" customWidth="1"/>
     <col min="4" max="4" width="65.84375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="57.61328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="63.53515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.4609375" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.84375" style="5" customWidth="1"/>
     <col min="8" max="27" width="10.53515625" style="5" customWidth="1"/>
@@ -899,7 +960,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -920,7 +981,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4"/>
@@ -950,47 +1011,47 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:27" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
+      <c r="H3" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1000,18 +1061,18 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="43" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="95.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -1019,20 +1080,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.35">
@@ -1040,20 +1101,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.35">
@@ -1061,20 +1122,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8" t="s">
-        <v>36</v>
+      <c r="E7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
@@ -1082,97 +1143,97 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
-        <v>35</v>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="76.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="52.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:27" ht="83.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1180,28 +1241,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:27" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -1210,309 +1271,332 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="67.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="140.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="64.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" ht="97.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="D21" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="63.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>22</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>111</v>
+      <c r="C22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>69</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="10" t="s">
+      <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="34" spans="3:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="5" t="s">
+      <c r="D34" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:7" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="5" t="s">
+    </row>
+    <row r="38" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="32" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="88" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="3:6" ht="101" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="13" t="s">
+    </row>
+    <row r="41" spans="3:7" ht="103" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="D41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="12"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2475,8 +2559,9 @@
     <hyperlink ref="G9" r:id="rId8"/>
     <hyperlink ref="G10" r:id="rId9"/>
     <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G41" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId11"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
